--- a/Modern_Physics/Expt_2/Book1.xlsx
+++ b/Modern_Physics/Expt_2/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amukh\OneDrive\Desktop\Lab Reports\Modern_Physics\Expt_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D09F7EC-CCAB-4992-8BD2-7B60989B42CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF1E826-977E-4693-A5E0-6739932FB1F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{488D743A-125F-46F4-AF15-D79EDFC9F9C9}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <t>B (from graph) (mT)</t>
   </si>
   <si>
-    <t>B fro accurate $\mu_B$  (mT)</t>
+    <t>B for accurate $\mu_B$  (mT)</t>
   </si>
 </sst>
 </file>
